--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/1_fold/57.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/1_fold/57.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-15.59228462114637</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>5.774878121784791</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>-3.374330486756167</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-12.69604539003424</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-4.603004204996771</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-12.4206681216374</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-15.86889998605573</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>5.673678843168511</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>-3.576550431232711</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-13.10026603690691</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-4.525539427323976</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-12.22138652235543</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-16.14833111086919</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>5.571449423398847</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>-3.780828839857305</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-13.55799513265421</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-4.45393369229118</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-12.05995439022395</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-16.40230001653702</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>5.478535314838854</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>-3.966493067221337</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-14.12866889862683</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-4.338539627979001</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-11.82395221982038</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-16.63200439718857</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>5.394498343051144</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-4.1344186888389</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-14.6266425428803</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-4.220429346953042</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-11.57982928120899</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-16.83541864999275</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>5.320079571516895</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-4.283124885695597</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-15.22537020533042</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-4.111877597387986</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-11.35423546598089</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-17.01446448482391</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>5.254575945823143</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-4.414016525753906</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-15.823771817652</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-3.959905313670389</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-11.20346991157694</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-17.16048085515116</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>5.201156095670831</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-4.520761942119037</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-16.3928425038259</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-3.818954458247039</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-10.87083622742759</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-17.30305206923062</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>5.148996650294339</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-4.624988773497505</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-16.94481367214683</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-3.697105755132246</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-10.58542416485041</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-17.46348170648153</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>5.090303730022963</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-4.742271023338904</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-17.65825210968526</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-3.573761848855399</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-10.24828151767657</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-17.66012189680886</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>5.018363238161223</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-4.886025034916964</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-18.34496349363041</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-3.402728831199386</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-9.968805263251292</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-17.88827390978287</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>4.93489419754814</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-5.052815796561509</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-18.99238130861101</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-3.222219290455345</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-9.566415074043958</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-18.17218017741297</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>4.83102755410185</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-5.260365762903806</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-19.68089049673721</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-3.034395265544585</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-9.232427376769046</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-18.51701322259656</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>4.704870948784323</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-5.512456312080464</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-20.49395083397038</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-2.806539557526136</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-8.952133417595572</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-18.91646515723772</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>4.558732112133624</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-5.804476056069199</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-21.32166984156638</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-2.615223964012577</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-8.649698529855453</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-19.33786922386245</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>4.404562123917812</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-6.112543928520766</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-22.11766688873864</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-2.362529659421185</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-8.436496086580849</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-19.77755258262109</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>4.24370468658588</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-6.433974896119278</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-22.91677499755417</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-2.110182440771565</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-8.211369058273791</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-20.21856647296905</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>4.082360476449194</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-6.756378550192396</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-23.65502947265464</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-1.872830328847423</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-8.152990898234282</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-20.63849691921556</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>3.928729609837416</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-7.063369130964373</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-24.38309488123783</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-1.640971949538647</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-8.083939539376164</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-20.99742778221055</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>3.79741534094236</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-7.325765904222243</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-24.97309617427518</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-1.468992936308636</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-8.007700986152287</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-21.28904388416345</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>3.690728067224955</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-7.538952152805013</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-25.55721950805058</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-1.299878417557506</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-7.9968357756924</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-21.50162566638317</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>3.612955370055194</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-7.694360281385586</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-25.95645883351481</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-1.172562489584236</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-7.977627990473549</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-21.62252986602024</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>3.568722766457924</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-7.782747419770325</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-26.1959154820924</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-1.062568552370906</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-8.023591604740789</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-21.62765118980384</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>3.566849138531904</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-7.786491368742592</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-26.48583291653747</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-1.037411862715288</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-8.077331690479779</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-21.52678514234357</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>3.603750816944448</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-7.712753141931995</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-26.62316341929408</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-1.00801807379435</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-8.044798959465361</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-21.32768040541329</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>3.67659295914805</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-7.567197421047686</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-26.54413249091222</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-1.012962598821661</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-8.038495680758588</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-21.03649575209629</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>3.783122388088005</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-7.354326583429975</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-26.5111244438703</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-1.05872575598932</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-8.067529165137996</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-20.64756165558227</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>3.925413290870613</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-7.069995915725125</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-26.21876616193511</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-1.11328948844432</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-8.135044430865893</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-20.18582796647853</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>4.094337805477538</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-6.732445031651491</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-26.04525315185721</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-1.124227251630885</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-8.057349237604738</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-19.67272014592714</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>4.282057462009224</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-6.357337036416371</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-25.7868357826095</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-1.192049832735094</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-8.003738263141781</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-19.12459823819133</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>4.482586965042501</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-5.956631957054526</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-25.5219879802709</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-1.184238328126695</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-8.02158541414399</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-18.54395986514367</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>4.69501256370224</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-5.532155682581772</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-25.10422266764129</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-1.222759069091678</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-7.999374964121021</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-17.95837354224792</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>4.909248361717388</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-5.104062204329034</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-24.74805818693801</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-1.224500297372362</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-7.920921655931372</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-17.38872099860328</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>5.117654812666545</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-4.687617131639435</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-24.31258654093841</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-1.236727000237683</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-7.850112397391901</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-16.84693341349465</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>5.315866914131753</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-4.291542765290886</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-23.9827324942197</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-1.211033528505051</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-7.782603752755082</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-16.32877172743438</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>5.505435519090036</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-3.912740136523999</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-23.41915484701711</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-1.205374950776527</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-7.744002791767181</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-15.8508545850852</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>5.680280723585232</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-3.563358322459168</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-23.00417907437622</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-1.188250111458453</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-7.683565472402246</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-15.42417121044256</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>5.836382138000673</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-3.251431006499801</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-22.53348948601896</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-1.183028083351205</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-7.597842206208358</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-15.04992726511727</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>5.973298673008913</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-2.977839588795437</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-22.00620302951384</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-1.173106726967875</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-7.525006893798852</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-14.71588531292768</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>6.095507374612444</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-2.733637879151622</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-21.55466435773502</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-1.211761663452111</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-7.478924099892197</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-14.42801999400101</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>6.200822430497245</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-2.523193644323427</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-21.01247469327066</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-1.202674473043401</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-7.494705470477903</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-14.19153406641706</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>6.287340420133285</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-2.350310365908361</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-20.50060769076165</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-1.241253199726579</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-7.459011168473481</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-14.00291640426308</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>6.356345883190357</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-2.212421231728955</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-20.04825842213546</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-1.278254714874828</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-7.393548440979933</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-13.84748496502917</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>6.413210220895952</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-2.098792919642639</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-19.510733085899</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-1.31091061462799</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-7.393760315894446</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-13.72578473247025</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>6.457734051835101</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-2.009823840578974</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-19.00755622501072</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-1.362350573607033</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-7.461699331451369</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-13.64096026243698</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>6.488766945395399</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-1.947812825297879</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-18.5966968352428</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-1.392315936035903</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-7.43775746611136</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-13.58798648089669</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>6.508147316688985</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-1.909086288305614</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-18.04826693359587</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-1.462379250964685</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-7.526172205828676</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-13.5524089163099</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>6.521163310476196</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-1.883077273449521</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-17.54278960791169</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-1.495739263010227</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-7.539394524712525</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-13.53211393859623</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>6.528588194863328</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-1.868240609304872</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-17.1727453543749</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-1.573340721304484</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-7.576972527128792</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-13.53096711567931</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>6.529007758150897</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-1.867402223242474</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-16.72187236827521</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-1.618142143917493</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-7.718306337291358</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-13.54523847185899</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>6.5237866058453</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-1.87783531272471</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-16.28195828927408</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-1.652116804575912</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-7.747703981680086</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-13.56329111134212</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>6.517182077230588</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-1.89103271322027</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-15.94330994603248</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-1.696762494117194</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-7.779733509772535</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-13.58308639076577</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>6.509940006645186</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>-1.905504072420647</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-15.58820965672101</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-1.749246196023765</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-7.924811546940016</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-13.61179807729853</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>6.499435883109153</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>-1.92649378012682</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-15.30642989006772</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-1.793177004496431</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-8.028517696503226</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-13.64891199046733</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>6.485857818707199</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-1.95362594417982</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-14.98271192562941</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-1.824128952502035</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-8.089064263870956</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-13.68722534633713</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>6.471840940155772</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>-1.981634962042008</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-14.74993024773912</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-1.846814622195102</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-8.133458679552582</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-13.72599008281542</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>6.457658924747344</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>-2.009973962158126</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-14.487133844126</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-1.859399179778432</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-8.218953518104261</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-13.7758725151671</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>6.439409518495926</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>-2.046440565174978</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-14.18623938868634</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-1.911813298823168</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-8.308659370581893</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-13.83841454677573</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>6.416528618571713</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>-2.09216198113281</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-14.03390605154232</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-1.92040678225981</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-8.444358632236618</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-13.90771371296499</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>6.391175632018127</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>-2.142823207213488</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-13.83425921796615</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-1.956242784472319</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-8.528760990760336</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-13.98145143056445</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>6.364198808694081</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>-2.196729240826898</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-13.64698870385295</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-2.015670690316559</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-8.611441865603634</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-14.07071209907082</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>6.331542939181515</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>-2.261983343523652</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-13.56458859080938</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-2.033598217647945</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-8.712105623816253</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-14.17664409935216</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>6.292787890218982</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>-2.339425040307928</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-13.49491801820137</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-2.042957112564774</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-8.69690690924546</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-14.29324889671905</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>6.250128215906988</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>-2.424669096280584</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-13.34437795676439</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-2.119653993655175</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-8.784159647478491</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-14.41582433440981</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>6.205284192602481</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>-2.514277994948004</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-13.29368621872253</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-2.138373440223639</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-8.805535840025565</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-14.55607595325032</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>6.153973367348521</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>-2.616809083862625</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-13.25465982972442</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-2.190779275594346</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-8.785377928236944</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-14.71503559690885</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>6.09581824182751</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>-2.733016693389926</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-13.14551454919155</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-2.225756260810153</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-8.779882422641753</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-14.88706468070907</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>6.032881683016664</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>-2.85877873045475</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-13.20856902127436</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-2.305069954525997</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-8.793859545908555</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-15.06570266903531</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>5.967527267299366</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>-2.989372213909905</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-13.24639989313443</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-2.361537275272631</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-8.705957940749828</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-15.26497673706797</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>5.894623175589042</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>-3.135051724469212</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-13.32021401945946</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-2.394569253826664</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-8.629428059518496</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-15.48765495754979</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>5.813156713002265</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>-3.297840864532788</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-13.38951325719884</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-2.476173383411249</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-8.553328549207269</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-15.73097056364612</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>5.724140096658121</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>-3.475716986385958</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-13.4880845509238</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-2.543390427944012</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-8.541718466001043</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-15.98843809931184</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>5.629946020038337</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>-3.663938890776172</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-13.68705211339881</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-2.605756552965981</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-8.340275080481932</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-16.27911765589381</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>5.523601379912384</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>-3.876440476910882</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-13.86025718724419</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-2.670715467958713</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-8.253115037523999</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-16.60965033393948</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>5.402676540512054</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>-4.11807672811471</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-14.13795227034255</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-2.743674755327682</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-8.185103189965213</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-16.98126280556865</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>5.266722725849564</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>-4.389744404291211</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-14.47563604862052</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-2.809269856485764</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-7.996567621503718</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-17.3861715312032</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>5.118587531143079</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-4.685753340897882</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-14.75823094059518</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-2.87036857938145</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-7.890054129323207</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-17.8480086996802</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>4.949625158776771</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-5.023379873672822</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-15.21445658297194</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-2.91425051417735</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-7.760529035099222</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-18.37540622040105</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>4.756677638820848</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-5.408934368782597</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-15.70459143871813</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-2.995596193132262</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-7.672236785566859</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-18.97097507699627</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>4.53878974718653</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-5.844325588471732</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-16.24911326729645</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-3.03115055042782</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-7.499363408051658</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-19.62206477996067</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>4.300589644758832</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-6.320305379492564</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-16.95949045640569</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-3.073618462067142</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-7.399080362576055</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-20.35480042832884</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>4.032519506805404</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-6.855972522124156</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-17.56471647905682</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-3.120533878292095</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-7.202026760442016</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-21.1771249272702</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>3.731673434467278</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-7.457133685286984</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-18.41342949215238</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-3.170783473313315</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-7.195048130445232</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-22.0904478090659</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>3.397535752665868</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-8.124819308991933</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-19.28396069301689</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-3.199869109560411</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-7.051737924595722</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-23.07251386710312</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>3.038248492323458</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-8.842759701759547</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-20.29161861530767</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-3.257820036325459</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-6.981117367151989</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-24.15012402177186</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>2.644006580570704</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-9.630547703759621</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-21.47680630412115</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-3.270099754704559</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-6.897479744647842</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-25.32779465321321</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>2.213157707123293</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-10.49148501929796</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-22.70098415414067</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-3.295461051108669</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-6.86945928720345</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-26.60455762723041</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>1.746056062292924</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-11.42486389288316</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-24.0422411711545</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-3.316615897841363</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-6.864864249994942</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-27.94650161906924</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>1.255108048750586</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-12.40589341598719</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-25.57191893467947</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-3.399074902585637</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-6.799153231585948</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-29.38233059720805</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.7298123665978271</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-13.45555765402465</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-27.10458549104951</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-3.388287902266382</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-6.866800919135415</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-30.91402219425329</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.1694455021816535</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-14.57530235732833</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-28.8543652052433</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-3.456203260519705</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-6.930370014580501</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-32.53835544393519</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>-0.4248141592587256</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-15.76277283522352</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-30.6270589979159</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-3.470689749659862</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-7.110082979179837</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-34.21025338184924</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>-1.036475284057006</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-16.98501552693447</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-32.52836145240634</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-3.490108338316289</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-7.218125943399492</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-35.95497685224774</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-1.674779510747646</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-18.26049739840068</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-34.60011114007148</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-3.537311198030013</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-7.373158791003561</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-37.7769614253187</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-2.341349585425846</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-19.59246107772938</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-36.7086275082049</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-3.605901675716617</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-7.670803319348355</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-39.64915565684417</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-3.026288781489732</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-20.96113057905096</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-38.85859752740453</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-3.645099192849687</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-7.940063230239438</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-41.54369727205118</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-3.719403731305668</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-22.34613715799205</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-41.1274309323575</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-3.691530842511405</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-8.200775312548123</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-43.43947721582678</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-4.412971721602103</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-23.73204901829546</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-43.30508351316602</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-3.760739282280498</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-8.563915673841857</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-45.39485673222639</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-5.128344118018078</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-25.1615312069167</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-45.66119872614282</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-3.807879186071609</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-8.821290726246957</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-47.28551074779619</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-5.820036795868165</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-26.5436957521803</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-47.91514703703258</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-3.873863619909007</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-9.073640370523442</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-49.23459235263724</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-6.533105111645946</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-27.96857384613707</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-50.19597523751335</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-3.917000024042388</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-9.469303531194978</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-25.86758782471622</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>2.015675258612168</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-10.88610136754717</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-25.81622464111482</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>2.034466395285293</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-10.84855225981985</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-25.69374296635304</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>2.079276115575657</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-10.75901190663724</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-25.52206075288045</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>2.142085772444736</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-10.633503449479</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-25.28828776141706</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>2.227611238840346</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-10.46260346578022</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-24.99614791042229</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>2.334490125287688</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-10.24903432992653</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-24.64803057774731</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>2.461848281809742</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-9.994542799031548</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-24.26073396238162</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>2.6035401147937</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-9.711409213589308</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-23.83444026938379</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>2.75949896481704</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-9.399766774793585</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-23.37678144487562</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>2.926932696879526</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-9.065194824636132</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-22.89627754695567</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>3.102724261667486</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-8.713921960274556</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-22.41132241421239</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>3.280144303431843</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-8.359395016158155</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-21.92251795547305</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>3.458972614813065</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-8.002054018348639</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-21.43389154652099</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>3.637735786970964</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-7.644843184017598</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-20.9523106900253</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>3.813921355291589</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-7.292783007991467</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-20.49682129793471</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>3.980561404054027</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-6.959797023614227</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-20.07382306991029</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>4.135314613609333</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-6.650563737846453</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-19.69489763421904</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>4.273943864207466</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-6.373549911838118</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-19.37460936099075</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>4.391120804868651</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-6.139402843218363</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-19.13535800214363</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>4.478650523007145</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-5.964497893459499</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-18.98137835440818</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>4.534983725168645</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-5.851930915027976</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-18.91572950251872</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>4.559001250208794</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-5.803938254937004</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-18.93908575875138</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>4.550456402084769</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-5.821012869863386</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-19.05566383273703</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>4.507806504478072</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-5.906237389680951</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-19.2491481571888</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>4.437020580982852</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-6.04768430229384</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-19.50252365728138</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>4.344323568881553</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-6.232914719907217</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-19.79967667218077</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>4.235610624622928</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-6.450148734343403</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-20.13300021431906</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>4.113664752161104</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-6.693825249586927</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-20.48105267877592</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>3.986330327570502</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-6.94826935850493</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-20.82826486830336</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>3.85930331618786</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-7.202099183579263</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-21.16564965825491</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>3.735871642859122</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-7.448744678176383</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-21.49529275941271</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>3.615272253707571</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-7.689730603289572</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-21.8069938948765</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>3.50123690334608</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-7.917600036093553</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-22.09577850855398</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>3.395585524980968</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-8.12871632228639</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-22.3626967517851</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>3.297933922462922</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-8.323847176075578</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-22.61667894885707</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>3.205014951264474</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-8.509521120134156</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-22.85424393372669</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>3.118102190286173</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-8.683193244477813</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-23.07321238662413</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>3.037992940099711</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-8.843270355167395</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-23.27447295056216</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>2.964362092112983</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-8.990402095583196</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-23.46383944979311</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>2.895082668236652</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-9.128838667871022</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-23.63485247558234</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>2.832517832586512</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-9.253857914691226</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-23.78010254056717</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>2.779378333989793</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-9.360043122754666</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-23.89644403503539</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>2.736814988612424</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-9.445094690874864</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-23.98693839031476</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>2.703707776812681</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-9.511250681544546</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-24.047212053102</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>2.68165675590996</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-9.555313804163307</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-24.07219709147792</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>2.672516020504061</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-9.573579141935769</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-24.06295870641541</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>2.675895868562074</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-9.566825411118952</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-24.02757699270318</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>2.688840210627305</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-9.540959573244338</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-23.96955643901203</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>2.710066935254063</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-9.498543588326919</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-23.88864481274161</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>2.739668321326452</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-9.439393061467094</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-23.78862450045779</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>2.776260588908603</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-9.366273110219309</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-23.67759784612898</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>2.816879508717832</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-9.285106961400555</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-23.55874396479761</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>2.860362006717973</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-9.198218710303127</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-23.429799086669</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>2.907536279384118</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-9.103953425711124</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-23.29378696412659</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>2.957296091854664</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-9.004521624886625</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-23.15916694462762</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>3.006546605704713</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-8.906107522411036</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-23.03119771531387</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>3.053363938848432</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-8.812555486879633</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-22.90820297873285</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>3.098361361965825</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-8.722640059331093</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-22.79307502944989</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>3.140480733822931</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-8.638475654655576</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-22.69201103475648</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>3.177454830906815</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-8.564592718318414</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-22.60731312619064</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>3.208441422161351</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-8.502674225927091</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-22.53153207247817</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>3.236165796658753</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-8.447274409365457</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-22.46179662029437</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>3.261678397729535</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-8.396294235963749</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-22.39898666646786</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>3.284657316558745</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-8.350376955195443</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-22.34297009923153</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>3.305150886020206</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-8.309425986618518</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-22.28481738401366</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>3.326425961725254</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-8.266913384882274</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-22.22266160239732</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>3.349165552721817</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-8.221474337375028</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-22.15963380791871</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>3.372224168197141</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-8.175397803975946</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-22.10001020776544</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>3.394037364748942</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-8.131809910308377</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-22.03850903033564</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>3.416537469875013</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-8.08684941185895</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-21.97761560873598</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>3.438815228525121</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-8.042333213928643</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-21.92464221132393</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>3.458195459286017</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-8.003606957753723</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-21.88840695143038</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>3.471452069824996</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-7.977117134073219</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-21.86733902263338</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>3.479159737101158</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-7.961715403251213</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-21.86765601919544</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>3.479043764427644</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-7.961947143911023</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-21.89872523532042</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>3.467677142548009</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-7.984660326028666</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-21.96975763832827</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>3.441690054140499</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-8.036588636652299</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-22.08061809071759</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>3.40113193903887</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-8.117633283373774</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-22.2391130099934</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>3.343146832172831</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-8.233501155667385</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-22.45548302492703</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>3.263988216263508</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-8.391678675634886</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-22.73904251540201</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>3.160248440671975</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-8.598975130184455</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-23.09109679108242</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>3.03144995999355</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-8.856344767276553</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-23.51954875306157</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>2.87470151079505</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-9.169565010811032</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-24.03294304439816</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>2.686877049395364</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-9.544882430805675</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-24.63504627454944</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>2.466598567887993</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-9.985050610943587</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-25.32509480284948</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>2.214145442960997</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-10.48951129093755</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-26.10586206469328</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>1.928503017813394</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-11.06029199356007</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-26.97998544357052</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>1.60870641001112</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-11.69932078069966</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-27.93994909871678</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>1.257505277599406</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-12.40110318930441</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-28.97803343036142</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>0.8777238235224658</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-13.15999579809327</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-30.08698218708442</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.4720167354886567</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-13.97069391706917</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-31.25769260982829</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.04371424300397509</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-14.82654296494454</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-32.46886675573661</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>-0.3993918363881515</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-15.71197305888475</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-33.70229156621244</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>-0.8506382850027285</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-16.61366952383759</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-34.94572585958086</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>-1.305546686554679</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-17.52268343146192</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-36.17488154680682</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>-1.75523128341401</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-18.42125894951133</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-37.3790265542406</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>-2.195765763997264</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-19.30155038460479</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-38.52329146783546</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>-2.614393210233531</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-20.13806641606034</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-39.63240861520524</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>-3.020161903709926</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-20.94888763719023</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-40.64835620850232</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>-3.39184466828556</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-21.69159716084567</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-41.65222155840983</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>-3.759107163887737</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-22.42547394815552</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-35.37087357055301</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>-1.461086280929132</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-17.83348809892964</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-34.93676108733057</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>-1.302266939296296</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-17.51612972557038</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-34.49035024097994</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>-1.138948261637263</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-17.18978062131027</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-34.04635395118845</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>-0.9765129455443712</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-16.86519668108394</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-33.6257690584372</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>-0.8226426507497281</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-16.55772766652758</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-33.24210693981399</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>-0.6822804924517426</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-16.27725108363364</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-32.89896122597282</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>-0.5567411945447983</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-16.02639405975479</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-32.58401076131758</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>-0.4415170824156131</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-15.7961492015333</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-32.33020472398375</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>-0.3486625589691091</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-15.61060403923085</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-32.1538156711569</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>-0.2841309126242458</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-15.48165464236491</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-32.06613682568909</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>-0.25205375048194</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-15.41755693301287</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-32.05272897821745</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>-0.2471485114241908</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-15.40775511245184</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-32.14237159611832</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>-0.2799441164977378</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-15.47328843964278</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-32.33903573109457</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>-0.3518933684701012</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-15.61705995598084</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-32.6350138362325</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>-0.460176473915043</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-15.8334350514383</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-32.99107125856128</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>-0.5904394992442819</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-16.09373119296818</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-33.40100323116204</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>-0.74041244063363</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-16.39341237938979</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-33.83507868374836</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>-0.8992182346688439</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-16.71074368146478</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-34.25265786533851</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>-1.051988894953552</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>-17.01601536781303</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-34.59182532823541</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>-1.176072756262292</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>-17.26396408728396</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-34.83178233848467</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>-1.263860635811578</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>-17.43938490421965</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-34.94947193635256</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>-1.306917182611762</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>-17.52542200470432</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-34.92856336133126</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>-1.299267814653686</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>-17.51013676962247</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-34.74784031692341</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>-1.233150584580781</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>-17.37801900379351</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-34.43143698118331</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>-1.117394941942583</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>-17.14671202268449</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-34.0065797347017</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>-0.9619616135266933</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>-16.83611969957865</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-33.50330564935334</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>-0.7778396129277424</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>-16.46820066648744</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-32.9399523117844</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>-0.5717377162137565</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>-16.05636063482038</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-32.36943080237352</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>-0.3630133555609438</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>-15.63928030382162</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-31.83853644549677</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>-0.1687865238193822</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>-15.25116944307567</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-31.38246687662274</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>-0.001934218330087998</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>-14.91775931986951</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-31.01047619152681</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>0.1341579651103325</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>-14.64581515035262</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-30.7515957220421</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>0.228868961255759</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>-14.4565603192538</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-30.62012181940754</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>0.2769684733990672</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>-14.36044618871884</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-30.60982707864468</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>0.2807347874614995</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>-14.35292020799052</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-30.68766150371213</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>0.2522591904138844</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>-14.40982114377425</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-30.83944651049471</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>0.1967288940538209</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>-14.52078372770014</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-31.04552106372645</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>0.1213368559612958</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>-14.6714347398961</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-31.27445669352586</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>0.03758113041490126</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>-14.83879836541961</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-31.48073195401127</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>-0.03788433609795326</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>-14.98959610485795</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-31.64371336909285</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>-0.09751082011311457</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>-15.10874383448354</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-31.74998979450527</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>-0.1363918764462567</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-15.18643732361097</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-31.78295591141444</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>-0.1484524763738176</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-15.21053723698044</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-31.72038871514539</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>-0.1255623699997724</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-15.16479742437196</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-31.56520934865884</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>-0.06879025269632565</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-15.05135339032455</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-31.33224678716417</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0.01643871922136456</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-14.88104587228049</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-31.03283065835886</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>0.1259796199992555</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-14.66215740611654</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-30.67130602264888</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>0.258242816397802</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-14.3978644526715</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-30.2704364785892</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>0.4049002831345814</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-14.10480836387236</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-29.86095886521595</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>0.5547069979440301</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-13.80545933722716</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-29.46180527439289</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>0.7007366859970674</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-13.51365769779075</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-29.07778581016454</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>0.8412295785999534</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-13.23291987702792</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-28.72346564759704</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>0.9708570302882686</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-12.97389376101735</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-28.41972536054463</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>1.081979917285082</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-12.75184411455916</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-28.17238242852645</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>1.172469924227673</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-12.57102381198569</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-27.97368846350237</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>1.245161786201548</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-12.42576838632213</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-27.82330832629425</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>1.300178113326636</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-12.31583283373066</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-27.7309083178447</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>1.333982505220402</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-12.24828371336844</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-27.69124649037538</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>1.348492719899955</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-12.21928889396891</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-27.68815468494879</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>1.34962385185604</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-12.21702862646026</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-27.71119870232527</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>1.341193235806622</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-12.23387497885256</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-27.76415814050036</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>1.321818112009725</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-12.27259103011307</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-27.83812542072802</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>1.294757303573795</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-12.32666488571982</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-27.91665812655265</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>1.266026241653783</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-12.38407630036287</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-27.98793496796861</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>1.239949725854651</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-12.43618330793391</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-28.05794233553559</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>1.21433764498588</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-12.48736226535366</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-28.12027299071419</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>1.191534076782714</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-12.53292915435685</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-28.16182987242568</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>1.176330559609608</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-12.56330935509179</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-28.17166818929552</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>1.172731227481572</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-12.57050166666789</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-28.15791543116277</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>1.1777626515403</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-12.56044769881647</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-28.1161172507259</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>1.193054447457242</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-12.52989109640238</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-28.03618472151264</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>1.222297632473399</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-12.47145633944421</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-27.90847737968781</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>1.269019154507832</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-12.37809575702853</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-27.7440909242079</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>1.329159670253605</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-12.25792087118755</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-27.54232529571551</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>1.402975295281087</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-12.11041990281447</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-27.29856392443116</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>1.492154994089845</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-11.93221790386622</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-27.00828800113648</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>1.598351965638122</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-11.72001139425762</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-26.68910627635368</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>1.715124077361211</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-11.48667326900686</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-26.34678937226568</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>1.84036015657617</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-11.23642214734289</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-25.98381442694359</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>1.973153946373115</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-10.97106894357758</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-25.60079337762043</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>2.113281570516682</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-10.69106101504889</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-25.22085523797321</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>2.25228131719998</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-10.41330685078128</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-24.8543074464724</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>2.386382226925032</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-10.14534171417515</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-24.5081001065456</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>2.513041615725553</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-9.892246485425622</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-24.18373095397658</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>2.631711539415855</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-9.655116085804099</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-23.90698467776306</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>2.732958711718545</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-9.452800438485214</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-23.68894705181479</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>2.812727420388797</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-9.293403809785639</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-23.53657460123654</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>2.868472632100251</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-9.182011774474136</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-23.44553058444818</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>2.90178093666363</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-9.115453953198019</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-23.43788670037409</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>2.90457743914417</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-9.109865883954091</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-23.51840965949224</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>2.875118246313447</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-9.168732275296076</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-23.68718806323166</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>2.813370943483641</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-9.292117899388964</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-23.92886302090676</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>2.724954555679751</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-9.46879462354145</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-24.25466732513068</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>2.605759584104897</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-9.706974192243164</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-24.6639508326463</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>2.456023882605839</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-10.00618131760329</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-25.1401677416284</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>2.281800705705836</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-10.35432017433203</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-25.67214555396352</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>2.087177493557728</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-10.74322309629521</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-26.24352864601672</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>1.87813792430506</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-11.16093328816287</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-26.87754144205375</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>1.646185380333174</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-11.62442898896762</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-27.50910396701567</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>1.415129264024654</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-12.08613341660529</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-28.20009761539831</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>1.162330368461973</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-12.59128502759901</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>